--- a/biology/Botanique/The_Genus_Banksia_L.f._(Proteaceae)/The_Genus_Banksia_L.f._(Proteaceae).xlsx
+++ b/biology/Botanique/The_Genus_Banksia_L.f._(Proteaceae)/The_Genus_Banksia_L.f._(Proteaceae).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">The Genus Banksia L.f. (Proteaceae) est le titre d'une monographie publiée en 1981 par le botaniste australien Alexander Segger George sur la taxonomie des plantes du genre Banksia. Publiée par l'Herbier d'Australie occidentale dans le journal de systématique botanique, Nuytsia, elle représentait la première révision importante du genre depuis la Flora Australiensis de George Bentham en 1870.
 Un des apports les plus importants de l'ouvrage The Genus Banksia L.f. (Proteaceae) fut la publication de dix nouvelles espèces et de neuf nouvelles variétés de Banksia. Ces nouveaux taxons étaient les suivants :
